--- a/biology/Zoologie/Cyrtodactylus_thirakhupti/Cyrtodactylus_thirakhupti.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_thirakhupti/Cyrtodactylus_thirakhupti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus thirakhupti est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus thirakhupti est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Surat Thani en Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Surat Thani en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus thirakhupti[2] mesure environ 80 mm, queue non comprise. Son dos est brun clair avec des bandes jaunâtres surlignées de brun foncé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus thirakhupti mesure environ 80 mm, queue non comprise. Son dos est brun clair avec des bandes jaunâtres surlignées de brun foncé.
 Ce gecko nocturne est insectivore. Il est essentiellement terrestre.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Kumthorn Thirakhupt, de l'Université Chulalongkorn[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Kumthorn Thirakhupt, de l'Université Chulalongkorn.
 </t>
         </is>
       </c>
